--- a/petproject/files/data/activities.xlsx
+++ b/petproject/files/data/activities.xlsx
@@ -1163,7 +1163,7 @@
       </c>
       <c r="AA2" t="s"/>
       <c r="AB2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="s"/>
       <c r="AD2" t="s">
